--- a/data/pca/factorExposure/factorExposure_2010-03-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01360581692093433</v>
+        <v>-0.01692049203209159</v>
       </c>
       <c r="C2">
-        <v>0.0008487477892459061</v>
+        <v>-0.0009758165681044603</v>
       </c>
       <c r="D2">
-        <v>-0.009439234483825965</v>
+        <v>-0.007860410614352688</v>
       </c>
       <c r="E2">
-        <v>-0.01572486104518392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0001314391774391039</v>
+      </c>
+      <c r="F2">
+        <v>0.01069235159749353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1273557313324336</v>
+        <v>-0.09340352834846498</v>
       </c>
       <c r="C4">
-        <v>-0.02675252056192434</v>
+        <v>-0.0156819472786637</v>
       </c>
       <c r="D4">
-        <v>-0.05398060273384309</v>
+        <v>-0.08450613949676729</v>
       </c>
       <c r="E4">
-        <v>-0.003501605491921368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.03112333548484883</v>
+      </c>
+      <c r="F4">
+        <v>-0.02982924626603392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1189132154082819</v>
+        <v>-0.1549285533380456</v>
       </c>
       <c r="C6">
-        <v>0.02221724054424005</v>
+        <v>-0.02467729135112414</v>
       </c>
       <c r="D6">
-        <v>0.01003595072719388</v>
+        <v>0.02237944189298436</v>
       </c>
       <c r="E6">
-        <v>-0.02068754012025279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01102283543734944</v>
+      </c>
+      <c r="F6">
+        <v>-0.04931406418592416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07612248106559699</v>
+        <v>-0.05935335192741958</v>
       </c>
       <c r="C7">
-        <v>-0.0003721260686806077</v>
+        <v>0.001063529038819985</v>
       </c>
       <c r="D7">
-        <v>-0.06314401800377979</v>
+        <v>-0.0528942203539839</v>
       </c>
       <c r="E7">
-        <v>-0.04612223727995256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01419866206231687</v>
+      </c>
+      <c r="F7">
+        <v>-0.04816875766018892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0532164251495018</v>
+        <v>-0.05785344215948531</v>
       </c>
       <c r="C8">
-        <v>-0.003721494604283857</v>
+        <v>0.01338445498579689</v>
       </c>
       <c r="D8">
-        <v>-0.03050471009552847</v>
+        <v>-0.03263095867639536</v>
       </c>
       <c r="E8">
-        <v>-0.02130642312478642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01528371560289545</v>
+      </c>
+      <c r="F8">
+        <v>0.03028823888065641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09552841620185948</v>
+        <v>-0.07127084510884728</v>
       </c>
       <c r="C9">
-        <v>-0.03645184796440225</v>
+        <v>-0.01165466918407376</v>
       </c>
       <c r="D9">
-        <v>-0.0349799271503811</v>
+        <v>-0.08416387688940834</v>
       </c>
       <c r="E9">
-        <v>-0.01498482020322848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.02560593407673776</v>
+      </c>
+      <c r="F9">
+        <v>-0.05043958719342111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08181971611238412</v>
+        <v>-0.0951864437162049</v>
       </c>
       <c r="C10">
-        <v>0.1204639657019091</v>
+        <v>-0.01817927701942641</v>
       </c>
       <c r="D10">
-        <v>0.1490307241081171</v>
+        <v>0.1697133449067458</v>
       </c>
       <c r="E10">
-        <v>-0.0001886132426888821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.03970005349315076</v>
+      </c>
+      <c r="F10">
+        <v>0.05357669660480509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08797316013185033</v>
+        <v>-0.08732130995556728</v>
       </c>
       <c r="C11">
-        <v>-0.01279206509799615</v>
+        <v>-0.01130948890883206</v>
       </c>
       <c r="D11">
-        <v>-0.04916967269297887</v>
+        <v>-0.1156548540149166</v>
       </c>
       <c r="E11">
-        <v>-0.03728414968086641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04909919100130419</v>
+      </c>
+      <c r="F11">
+        <v>-0.01996222762953932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09176316718128176</v>
+        <v>-0.09181019385841833</v>
       </c>
       <c r="C12">
-        <v>-0.01944216196524769</v>
+        <v>-0.008800861532526025</v>
       </c>
       <c r="D12">
-        <v>-0.07203871730647879</v>
+        <v>-0.1248464294018701</v>
       </c>
       <c r="E12">
-        <v>-0.04684752110802391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04899987813030832</v>
+      </c>
+      <c r="F12">
+        <v>-0.01972727519742441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04176895675837619</v>
+        <v>-0.04293016113560987</v>
       </c>
       <c r="C13">
-        <v>-0.03784996977991033</v>
+        <v>-0.003872466704033991</v>
       </c>
       <c r="D13">
-        <v>-0.008458547077880831</v>
+        <v>-0.04779526457375802</v>
       </c>
       <c r="E13">
-        <v>-0.002154587451822081</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01215605919539768</v>
+      </c>
+      <c r="F13">
+        <v>-0.01416819524948727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03057355226709735</v>
+        <v>-0.02231744977655143</v>
       </c>
       <c r="C14">
-        <v>0.00168701688406893</v>
+        <v>-0.01408186451813984</v>
       </c>
       <c r="D14">
-        <v>-0.004613898806899159</v>
+        <v>-0.03291921030556934</v>
       </c>
       <c r="E14">
-        <v>0.004572368666084472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01850663661029244</v>
+      </c>
+      <c r="F14">
+        <v>-0.01830325654837037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02440469032280671</v>
+        <v>-0.03140232609997187</v>
       </c>
       <c r="C15">
-        <v>-0.0181783107083412</v>
+        <v>-0.005194265966258743</v>
       </c>
       <c r="D15">
-        <v>-0.002798017208103018</v>
+        <v>-0.04595770076185503</v>
       </c>
       <c r="E15">
-        <v>-0.01539229810773633</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.008555015705086171</v>
+      </c>
+      <c r="F15">
+        <v>-0.02924471936304654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09443255358626197</v>
+        <v>-0.07301707890695988</v>
       </c>
       <c r="C16">
-        <v>-0.005374940291591258</v>
+        <v>-0.002670121569356207</v>
       </c>
       <c r="D16">
-        <v>-0.06291091910899321</v>
+        <v>-0.1196678210217751</v>
       </c>
       <c r="E16">
-        <v>-0.04526196498555803</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.06395973670357749</v>
+      </c>
+      <c r="F16">
+        <v>-0.02881889032365879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02411956169193209</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003873253638376133</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.0196406082799012</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-0.006417786295003751</v>
+      </c>
+      <c r="F18">
+        <v>0.01608850638585787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04994458315878406</v>
+        <v>-0.06047276983728453</v>
       </c>
       <c r="C20">
-        <v>0.007822356080554043</v>
+        <v>-0.0003277985289394084</v>
       </c>
       <c r="D20">
-        <v>-0.04270553219756154</v>
+        <v>-0.07537941044942933</v>
       </c>
       <c r="E20">
-        <v>0.002540153199882565</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05572423691379536</v>
+      </c>
+      <c r="F20">
+        <v>-0.02650471627095339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02596927711532073</v>
+        <v>-0.03860600631762356</v>
       </c>
       <c r="C21">
-        <v>0.01016677991235346</v>
+        <v>-0.00680839467673017</v>
       </c>
       <c r="D21">
-        <v>0.003972482278536865</v>
+        <v>-0.03660024569985606</v>
       </c>
       <c r="E21">
-        <v>0.03687125380964038</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.007801803985843357</v>
+      </c>
+      <c r="F21">
+        <v>0.02317668984352202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02902173681942801</v>
+        <v>-0.04336382887006875</v>
       </c>
       <c r="C22">
-        <v>0.01970952333575036</v>
+        <v>-0.0009863199516709099</v>
       </c>
       <c r="D22">
-        <v>0.03624816466373154</v>
+        <v>0.0005804360541298159</v>
       </c>
       <c r="E22">
-        <v>-0.07252684602824974</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.02728010169697384</v>
+      </c>
+      <c r="F22">
+        <v>0.0007317839641724201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02921996518376351</v>
+        <v>-0.04341613839237635</v>
       </c>
       <c r="C23">
-        <v>0.01985540065561065</v>
+        <v>-0.001008300847255884</v>
       </c>
       <c r="D23">
-        <v>0.03576341622049645</v>
+        <v>0.0004535135106992951</v>
       </c>
       <c r="E23">
-        <v>-0.07433154041520131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.02763444120692033</v>
+      </c>
+      <c r="F23">
+        <v>0.0002670640556718512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09882088102707598</v>
+        <v>-0.07950881192305569</v>
       </c>
       <c r="C24">
-        <v>-0.008826333995087296</v>
+        <v>-0.002958845216715463</v>
       </c>
       <c r="D24">
-        <v>-0.06607537981399547</v>
+        <v>-0.1198086324746862</v>
       </c>
       <c r="E24">
-        <v>-0.03672110714640828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05189027105163646</v>
+      </c>
+      <c r="F24">
+        <v>-0.02136448917707331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09926421341743237</v>
+        <v>-0.08463052657773823</v>
       </c>
       <c r="C25">
-        <v>-0.003457078632829276</v>
+        <v>-0.005061669566021778</v>
       </c>
       <c r="D25">
-        <v>-0.05128049052068107</v>
+        <v>-0.1085040044248926</v>
       </c>
       <c r="E25">
-        <v>-0.04027644675547078</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03449920037950944</v>
+      </c>
+      <c r="F25">
+        <v>-0.02968988024546598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03622785540874393</v>
+        <v>-0.05456202915668407</v>
       </c>
       <c r="C26">
-        <v>0.03124398069966071</v>
+        <v>-0.01450435561890288</v>
       </c>
       <c r="D26">
-        <v>0.00914423033435509</v>
+        <v>-0.04100899877146252</v>
       </c>
       <c r="E26">
-        <v>0.002285260575739513</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02683249277634626</v>
+      </c>
+      <c r="F26">
+        <v>0.01049828093259397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08416476465512653</v>
+        <v>-0.1435867245394893</v>
       </c>
       <c r="C28">
-        <v>0.1427505390687222</v>
+        <v>-0.01709323741566571</v>
       </c>
       <c r="D28">
-        <v>0.2879668380587319</v>
+        <v>0.264763042810421</v>
       </c>
       <c r="E28">
-        <v>-0.0001876148845252667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.06997078854877735</v>
+      </c>
+      <c r="F28">
+        <v>-0.03020665291836186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02970032443651701</v>
+        <v>-0.02710403464239401</v>
       </c>
       <c r="C29">
-        <v>-0.007978641553453149</v>
+        <v>-0.00836448450882416</v>
       </c>
       <c r="D29">
-        <v>0.002963629827576547</v>
+        <v>-0.03194948291820944</v>
       </c>
       <c r="E29">
-        <v>0.0007790058372249231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01162809856191198</v>
+      </c>
+      <c r="F29">
+        <v>0.01379046706396707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1158928751164075</v>
+        <v>-0.06247806602185856</v>
       </c>
       <c r="C30">
-        <v>-0.06232241540218336</v>
+        <v>-0.004280510339807036</v>
       </c>
       <c r="D30">
-        <v>-0.08704564759393463</v>
+        <v>-0.08733457299711854</v>
       </c>
       <c r="E30">
-        <v>-0.04462792018052733</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02460927776875579</v>
+      </c>
+      <c r="F30">
+        <v>-0.1009810313185678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03049748536789075</v>
+        <v>-0.04811159261386557</v>
       </c>
       <c r="C31">
-        <v>0.0001929758399102732</v>
+        <v>-0.01496811814198119</v>
       </c>
       <c r="D31">
-        <v>-0.02342074217289267</v>
+        <v>-0.0262764776026803</v>
       </c>
       <c r="E31">
-        <v>-0.01518339475524518</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02808650789989222</v>
+      </c>
+      <c r="F31">
+        <v>0.006052958856948744</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06370956599053587</v>
+        <v>-0.04796085236107634</v>
       </c>
       <c r="C32">
-        <v>0.01189918273298926</v>
+        <v>0.0005210066334801945</v>
       </c>
       <c r="D32">
-        <v>-0.0288185303915015</v>
+        <v>-0.03164369705373656</v>
       </c>
       <c r="E32">
-        <v>0.002409984683814182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.02993336437563262</v>
+      </c>
+      <c r="F32">
+        <v>-0.003963297878658908</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.106256137897305</v>
+        <v>-0.08950003711228867</v>
       </c>
       <c r="C33">
-        <v>-0.03483153025470777</v>
+        <v>-0.008334662804192067</v>
       </c>
       <c r="D33">
-        <v>-0.04439820405485694</v>
+        <v>-0.09737542687904335</v>
       </c>
       <c r="E33">
-        <v>-0.08084840158276686</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.04781118004359849</v>
+      </c>
+      <c r="F33">
+        <v>-0.03953804962613547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08709185872414618</v>
+        <v>-0.06729679325823489</v>
       </c>
       <c r="C34">
-        <v>-0.005220905226647913</v>
+        <v>-0.01181093774094476</v>
       </c>
       <c r="D34">
-        <v>-0.06516251982768442</v>
+        <v>-0.1002364231144469</v>
       </c>
       <c r="E34">
-        <v>-0.04620937735639602</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03596918137068929</v>
+      </c>
+      <c r="F34">
+        <v>-0.03886976775433216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.0145292347488287</v>
+        <v>-0.02439064664435053</v>
       </c>
       <c r="C35">
-        <v>-0.01419325770069831</v>
+        <v>-0.002331515260468815</v>
       </c>
       <c r="D35">
-        <v>-0.004422887880297337</v>
+        <v>-0.01154358361484147</v>
       </c>
       <c r="E35">
-        <v>-0.000781408578721857</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01111578215490315</v>
+      </c>
+      <c r="F35">
+        <v>-0.00839975588961759</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02514597919557707</v>
+        <v>-0.02458600238413212</v>
       </c>
       <c r="C36">
-        <v>-0.006901846297237518</v>
+        <v>-0.007363205952841366</v>
       </c>
       <c r="D36">
-        <v>0.006069507529954589</v>
+        <v>-0.03684774686838387</v>
       </c>
       <c r="E36">
-        <v>0.0009449003842448983</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01717347330965273</v>
+      </c>
+      <c r="F36">
+        <v>-0.01746465721892127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.006817564852341336</v>
+        <v>-0.001510968327599344</v>
       </c>
       <c r="C38">
-        <v>-0.001430636709765429</v>
+        <v>-0.0002349294310320421</v>
       </c>
       <c r="D38">
-        <v>-0.003582545492622918</v>
+        <v>-0.0008740416939172758</v>
       </c>
       <c r="E38">
-        <v>-0.005782689065204571</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001188195039615558</v>
+      </c>
+      <c r="F38">
+        <v>0.00113243563080779</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1455708331418462</v>
+        <v>-0.1075716639728387</v>
       </c>
       <c r="C39">
-        <v>-0.03733077696814859</v>
+        <v>-0.01641626774196656</v>
       </c>
       <c r="D39">
-        <v>-0.1038786860437477</v>
+        <v>-0.1553985655644961</v>
       </c>
       <c r="E39">
-        <v>-0.06865423732700902</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06242534613449669</v>
+      </c>
+      <c r="F39">
+        <v>-0.02298546015834321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.007397449061153203</v>
+        <v>-0.0370526033573058</v>
       </c>
       <c r="C40">
-        <v>-0.005255716176318756</v>
+        <v>-0.007026735224159602</v>
       </c>
       <c r="D40">
-        <v>-0.02490549098671437</v>
+        <v>-0.03354701825213822</v>
       </c>
       <c r="E40">
-        <v>0.01294148908271996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.002861083256332867</v>
+      </c>
+      <c r="F40">
+        <v>0.01205487243560356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01922940241513071</v>
+        <v>-0.02626443313487771</v>
       </c>
       <c r="C41">
-        <v>0.02698789667543802</v>
+        <v>-0.006501332973505088</v>
       </c>
       <c r="D41">
-        <v>-0.00814322198927455</v>
+        <v>-0.01148619347769049</v>
       </c>
       <c r="E41">
-        <v>-0.006261450451629244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01225224673458105</v>
+      </c>
+      <c r="F41">
+        <v>0.008800547292335096</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0324051668433846</v>
+        <v>-0.04004778353519264</v>
       </c>
       <c r="C43">
-        <v>0.02570256749256834</v>
+        <v>-0.00657621108833874</v>
       </c>
       <c r="D43">
-        <v>-0.01216382929779544</v>
+        <v>-0.0216054711413847</v>
       </c>
       <c r="E43">
-        <v>-0.02939397331393229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0245707823088502</v>
+      </c>
+      <c r="F43">
+        <v>0.01425966289350995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1370679096378263</v>
+        <v>-0.07589728638630058</v>
       </c>
       <c r="C44">
-        <v>-0.0647299740449918</v>
+        <v>-0.02147175020761133</v>
       </c>
       <c r="D44">
-        <v>-0.09998196455665186</v>
+        <v>-0.09551311659034233</v>
       </c>
       <c r="E44">
-        <v>-0.05918346587239283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07532960801801596</v>
+      </c>
+      <c r="F44">
+        <v>-0.1802670625893394</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01560601661167809</v>
+        <v>-0.02251604209976741</v>
       </c>
       <c r="C46">
-        <v>0.02414510343156677</v>
+        <v>-0.003485977944400778</v>
       </c>
       <c r="D46">
-        <v>0.0121817524466472</v>
+        <v>-0.0131278219429991</v>
       </c>
       <c r="E46">
-        <v>-0.02947135886907843</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02338709803563112</v>
+      </c>
+      <c r="F46">
+        <v>-0.0003810578277372956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03716236276345887</v>
+        <v>-0.05157731372140498</v>
       </c>
       <c r="C47">
-        <v>0.008053497928946924</v>
+        <v>-0.003191393938158349</v>
       </c>
       <c r="D47">
-        <v>-0.00877787892146077</v>
+        <v>-0.01366130594590303</v>
       </c>
       <c r="E47">
-        <v>0.001405385875502588</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.0226717460194753</v>
+      </c>
+      <c r="F47">
+        <v>0.04433679068526656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03894521346295206</v>
+        <v>-0.04744909313119369</v>
       </c>
       <c r="C48">
-        <v>-0.01019654052739239</v>
+        <v>-0.002520414087721397</v>
       </c>
       <c r="D48">
-        <v>0.007329958974424098</v>
+        <v>-0.0508795539485828</v>
       </c>
       <c r="E48">
-        <v>-0.0003428654725052618</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004649082274856716</v>
+      </c>
+      <c r="F48">
+        <v>-0.01062460107214956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2216036255243017</v>
+        <v>-0.2030363685693413</v>
       </c>
       <c r="C49">
-        <v>0.06574149388070032</v>
+        <v>-0.0175761738134858</v>
       </c>
       <c r="D49">
-        <v>-0.02569216688290443</v>
+        <v>0.009907746009740705</v>
       </c>
       <c r="E49">
-        <v>0.01010242296453511</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0332831266344079</v>
+      </c>
+      <c r="F49">
+        <v>-0.02851878326817348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03895784538054288</v>
+        <v>-0.0480681530883609</v>
       </c>
       <c r="C50">
-        <v>0.01129401590728815</v>
+        <v>-0.01096524347020382</v>
       </c>
       <c r="D50">
-        <v>-0.02641403544379014</v>
+        <v>-0.02583059466074516</v>
       </c>
       <c r="E50">
-        <v>-0.009900389775414738</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02989290301748606</v>
+      </c>
+      <c r="F50">
+        <v>-0.00747203850039154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.009621330663078839</v>
+        <v>-0.002164684566845365</v>
       </c>
       <c r="C51">
-        <v>0.008331421346970519</v>
+        <v>-0.0005482850449742384</v>
       </c>
       <c r="D51">
-        <v>0.01566799244257431</v>
+        <v>0.002294061932052836</v>
       </c>
       <c r="E51">
-        <v>-0.0156557459133008</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-5.198040282087151e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.004601978110604735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1306067368219143</v>
+        <v>-0.1449562395894345</v>
       </c>
       <c r="C52">
-        <v>-0.06512670893276495</v>
+        <v>-0.01398624626295387</v>
       </c>
       <c r="D52">
-        <v>-0.06992903116034169</v>
+        <v>-0.05071378154111594</v>
       </c>
       <c r="E52">
-        <v>-0.006845714003364594</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.02416659898294806</v>
+      </c>
+      <c r="F52">
+        <v>-0.03353040952898892</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1527690691884352</v>
+        <v>-0.1739216856230696</v>
       </c>
       <c r="C53">
-        <v>-0.006283746641692824</v>
+        <v>-0.01687613490049034</v>
       </c>
       <c r="D53">
-        <v>-0.006721788088473222</v>
+        <v>-0.01048113903134464</v>
       </c>
       <c r="E53">
-        <v>-0.003072432043432605</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.0357911374586745</v>
+      </c>
+      <c r="F53">
+        <v>-0.06497806540936851</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05014300335895006</v>
+        <v>-0.02170840030771374</v>
       </c>
       <c r="C54">
-        <v>0.000570203619077483</v>
+        <v>-0.01224232755392879</v>
       </c>
       <c r="D54">
-        <v>-0.01815148346698111</v>
+        <v>-0.03424102704013342</v>
       </c>
       <c r="E54">
-        <v>-0.007780954768943917</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01550544225391169</v>
+      </c>
+      <c r="F54">
+        <v>0.003912152169644549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08558962697366114</v>
+        <v>-0.1141721515016739</v>
       </c>
       <c r="C55">
-        <v>-0.0260198161532652</v>
+        <v>-0.01548912258771922</v>
       </c>
       <c r="D55">
-        <v>-0.001255182627545322</v>
+        <v>-0.01073728075370594</v>
       </c>
       <c r="E55">
-        <v>-0.04330008649213957</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03118089968309656</v>
+      </c>
+      <c r="F55">
+        <v>-0.0441499822494116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1592596408946176</v>
+        <v>-0.1775053346244121</v>
       </c>
       <c r="C56">
-        <v>-0.008779085387368791</v>
+        <v>-0.01438019040867182</v>
       </c>
       <c r="D56">
-        <v>-0.03998406516514164</v>
+        <v>-0.007036102406023366</v>
       </c>
       <c r="E56">
-        <v>-0.02736758911777077</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04062279764609409</v>
+      </c>
+      <c r="F56">
+        <v>-0.04280761610449032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04045846046258928</v>
+        <v>-0.04651415812129685</v>
       </c>
       <c r="C58">
-        <v>0.02096913496877223</v>
+        <v>-0.001329219566009133</v>
       </c>
       <c r="D58">
-        <v>0.005769267669495492</v>
+        <v>-0.06577231916523335</v>
       </c>
       <c r="E58">
-        <v>0.01460907063976149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.0234803623816906</v>
+      </c>
+      <c r="F58">
+        <v>0.04243640355545326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1491746957604571</v>
+        <v>-0.1724323499134926</v>
       </c>
       <c r="C59">
-        <v>0.1299990488281569</v>
+        <v>-0.01771318314918504</v>
       </c>
       <c r="D59">
-        <v>0.2334918181443272</v>
+        <v>0.2221634886421068</v>
       </c>
       <c r="E59">
-        <v>-0.02596612213206686</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04968854199255851</v>
+      </c>
+      <c r="F59">
+        <v>0.02859803744843089</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2770137815154356</v>
+        <v>-0.2355558239934695</v>
       </c>
       <c r="C60">
-        <v>-0.05146068190356139</v>
+        <v>0.004252115971664749</v>
       </c>
       <c r="D60">
-        <v>-0.1111158935656121</v>
+        <v>-0.04620459564212869</v>
       </c>
       <c r="E60">
-        <v>0.04368973811807214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01059459390004553</v>
+      </c>
+      <c r="F60">
+        <v>0.03439034043902051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1215366539413118</v>
+        <v>-0.08303290586564152</v>
       </c>
       <c r="C61">
-        <v>-0.0375325848019446</v>
+        <v>-0.01255203224929064</v>
       </c>
       <c r="D61">
-        <v>-0.04980933713616712</v>
+        <v>-0.1155135870446546</v>
       </c>
       <c r="E61">
-        <v>-0.04090086981642727</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04222913174881535</v>
+      </c>
+      <c r="F61">
+        <v>-0.01328068652583778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1602169945121724</v>
+        <v>-0.1702542466547008</v>
       </c>
       <c r="C62">
-        <v>-0.007551495158454191</v>
+        <v>-0.0179330872356092</v>
       </c>
       <c r="D62">
-        <v>-0.02702233434481438</v>
+        <v>-0.01073389651466851</v>
       </c>
       <c r="E62">
-        <v>-0.01613027489902171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03641714704046801</v>
+      </c>
+      <c r="F62">
+        <v>-0.02312824663425127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04339118329477874</v>
+        <v>-0.04220946053515043</v>
       </c>
       <c r="C63">
-        <v>-0.005594474174201628</v>
+        <v>-0.002596152263432255</v>
       </c>
       <c r="D63">
-        <v>0.008302793287677026</v>
+        <v>-0.05460148515906047</v>
       </c>
       <c r="E63">
-        <v>-0.01472651352061662</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02161106731216024</v>
+      </c>
+      <c r="F63">
+        <v>-0.008220005671996104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09286679912276649</v>
+        <v>-0.1115877840678179</v>
       </c>
       <c r="C64">
-        <v>0.005274340616834443</v>
+        <v>-0.01109849678836803</v>
       </c>
       <c r="D64">
-        <v>-0.016904745661689</v>
+        <v>-0.04378872149942253</v>
       </c>
       <c r="E64">
-        <v>-0.004114870540848699</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02082903304567238</v>
+      </c>
+      <c r="F64">
+        <v>-0.02625576464635918</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1188801474407292</v>
+        <v>-0.1460135321325071</v>
       </c>
       <c r="C65">
-        <v>-0.009494662417210881</v>
+        <v>-0.03131957901619765</v>
       </c>
       <c r="D65">
-        <v>0.02247775091931126</v>
+        <v>0.04262928490582156</v>
       </c>
       <c r="E65">
-        <v>0.002462281883386828</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0006538850088936735</v>
+      </c>
+      <c r="F65">
+        <v>-0.0480593549493111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1669097096335515</v>
+        <v>-0.128545954007889</v>
       </c>
       <c r="C66">
-        <v>-0.040672054275589</v>
+        <v>-0.01416831755981692</v>
       </c>
       <c r="D66">
-        <v>-0.1330829836401157</v>
+        <v>-0.1442445465084254</v>
       </c>
       <c r="E66">
-        <v>-0.08154778977331135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.06910114646282213</v>
+      </c>
+      <c r="F66">
+        <v>-0.02862368110489009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06841473789083499</v>
+        <v>-0.06201554627025803</v>
       </c>
       <c r="C67">
-        <v>-0.03393236544906056</v>
+        <v>-0.002837957552530263</v>
       </c>
       <c r="D67">
-        <v>-0.007047222140098034</v>
+        <v>-0.05382428421691016</v>
       </c>
       <c r="E67">
-        <v>-0.08137529952389286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0178833121169664</v>
+      </c>
+      <c r="F67">
+        <v>0.03932589298000121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07548944093062399</v>
+        <v>-0.1172588767456899</v>
       </c>
       <c r="C68">
-        <v>0.1254296407131113</v>
+        <v>-0.02764222360426222</v>
       </c>
       <c r="D68">
-        <v>0.2491112178329628</v>
+        <v>0.2606017378738987</v>
       </c>
       <c r="E68">
-        <v>0.003764748257565381</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.08871224479585632</v>
+      </c>
+      <c r="F68">
+        <v>-0.03256162834826863</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03434715277094686</v>
+        <v>-0.03902696597832445</v>
       </c>
       <c r="C69">
-        <v>-0.008657386918028578</v>
+        <v>-0.0008863185681211012</v>
       </c>
       <c r="D69">
-        <v>0.01560276906392961</v>
+        <v>-0.009510886462868965</v>
       </c>
       <c r="E69">
-        <v>-0.02491030889307008</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02443604651578516</v>
+      </c>
+      <c r="F69">
+        <v>0.01022741432932456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0213373967967984</v>
+        <v>-0.06207757381662762</v>
       </c>
       <c r="C70">
-        <v>-0.008418268316168718</v>
+        <v>0.0287836766325149</v>
       </c>
       <c r="D70">
-        <v>0.03533582797546485</v>
+        <v>-0.02981825561873375</v>
       </c>
       <c r="E70">
-        <v>-0.02937790331882192</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.04945586022616069</v>
+      </c>
+      <c r="F70">
+        <v>0.2627824631549751</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.08842586091033955</v>
+        <v>-0.1365548997714223</v>
       </c>
       <c r="C71">
-        <v>0.1309291447047305</v>
+        <v>-0.03191911655122479</v>
       </c>
       <c r="D71">
-        <v>0.2676695940509863</v>
+        <v>0.2752085428426562</v>
       </c>
       <c r="E71">
-        <v>-0.009286003351961065</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.09752565782786636</v>
+      </c>
+      <c r="F71">
+        <v>-0.03871951533295542</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1371367276573542</v>
+        <v>-0.1409852601640177</v>
       </c>
       <c r="C72">
-        <v>0.03298774954107196</v>
+        <v>-0.0249513791941206</v>
       </c>
       <c r="D72">
-        <v>0.01400684887506256</v>
+        <v>-0.004762305082248959</v>
       </c>
       <c r="E72">
-        <v>-0.009857862316318456</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.04469296718002233</v>
+      </c>
+      <c r="F72">
+        <v>-0.02519108239234268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2290676874283399</v>
+        <v>-0.2030195869551758</v>
       </c>
       <c r="C73">
-        <v>0.01743962058020779</v>
+        <v>-0.01161301614802829</v>
       </c>
       <c r="D73">
-        <v>-0.04066355893795308</v>
+        <v>-0.01527138572012043</v>
       </c>
       <c r="E73">
-        <v>-0.08185420403525227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06454040944726112</v>
+      </c>
+      <c r="F73">
+        <v>-0.02950214733281651</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1117959448803294</v>
+        <v>-0.0944641148537238</v>
       </c>
       <c r="C74">
-        <v>0.009953550135801693</v>
+        <v>-0.01226132015344327</v>
       </c>
       <c r="D74">
-        <v>-0.03765306592129802</v>
+        <v>-0.02051431291561734</v>
       </c>
       <c r="E74">
-        <v>-0.0323610246573542</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04839579336049641</v>
+      </c>
+      <c r="F74">
+        <v>-0.04960189787230514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1249301380818539</v>
+        <v>-0.1293822308932967</v>
       </c>
       <c r="C75">
-        <v>-0.003664939590114241</v>
+        <v>-0.02653935094437763</v>
       </c>
       <c r="D75">
-        <v>-0.05005565918654362</v>
+        <v>-0.03413862304460162</v>
       </c>
       <c r="E75">
-        <v>-0.01811630902045653</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06061611093952861</v>
+      </c>
+      <c r="F75">
+        <v>-0.01180587111540945</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01553837012731354</v>
+        <v>-0.003224197894138115</v>
       </c>
       <c r="C76">
-        <v>0.009103189174101921</v>
+        <v>-0.0007785413207516613</v>
       </c>
       <c r="D76">
-        <v>0.01537650299083819</v>
+        <v>0.002288025633954369</v>
       </c>
       <c r="E76">
-        <v>-0.009786688829327185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0004784416471294208</v>
+      </c>
+      <c r="F76">
+        <v>-0.003790016584951999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0817933813281136</v>
+        <v>-0.07813399359880384</v>
       </c>
       <c r="C77">
-        <v>-0.05069572090099244</v>
+        <v>-0.008610748462309921</v>
       </c>
       <c r="D77">
-        <v>-0.1045862884977475</v>
+        <v>-0.1178197970920427</v>
       </c>
       <c r="E77">
-        <v>0.000962207566948936</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04072665576453337</v>
+      </c>
+      <c r="F77">
+        <v>-0.02815890956122852</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1044140174947843</v>
+        <v>-0.1037071027795205</v>
       </c>
       <c r="C78">
-        <v>0.09074716705443381</v>
+        <v>-0.03985132905666599</v>
       </c>
       <c r="D78">
-        <v>-0.05987235685014466</v>
+        <v>-0.1182066046140204</v>
       </c>
       <c r="E78">
-        <v>-0.1631875642087739</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.08279975527983859</v>
+      </c>
+      <c r="F78">
+        <v>-0.05760024873216149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1373471631424621</v>
+        <v>-0.1639955918255173</v>
       </c>
       <c r="C79">
-        <v>0.02028343324746582</v>
+        <v>-0.02060379692731952</v>
       </c>
       <c r="D79">
-        <v>-0.06324301389052629</v>
+        <v>-0.01948432773781045</v>
       </c>
       <c r="E79">
-        <v>-0.00998522177074883</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.04896728675075304</v>
+      </c>
+      <c r="F79">
+        <v>-0.003045887198717664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08630365316910824</v>
+        <v>-0.08068560365334404</v>
       </c>
       <c r="C80">
-        <v>-0.04910743938552787</v>
+        <v>0.0009704066072311031</v>
       </c>
       <c r="D80">
-        <v>-0.05745587475464296</v>
+        <v>-0.05556515896174816</v>
       </c>
       <c r="E80">
-        <v>-0.05857682502838884</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03562816404735709</v>
+      </c>
+      <c r="F80">
+        <v>0.02024160662036936</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1455037756201295</v>
+        <v>-0.123062923197652</v>
       </c>
       <c r="C81">
-        <v>0.001417383873010345</v>
+        <v>-0.03037087983466986</v>
       </c>
       <c r="D81">
-        <v>-0.06500424802860756</v>
+        <v>-0.01756680737819648</v>
       </c>
       <c r="E81">
-        <v>-0.02814808749199953</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06046535177306699</v>
+      </c>
+      <c r="F81">
+        <v>-0.005260214502197085</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.169034229280118</v>
+        <v>-0.1642647609455855</v>
       </c>
       <c r="C82">
-        <v>-0.02161297681472777</v>
+        <v>-0.02252798542642166</v>
       </c>
       <c r="D82">
-        <v>-0.03835711271339766</v>
+        <v>-0.01210805659006461</v>
       </c>
       <c r="E82">
-        <v>-0.03058799379592823</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.03459252777448173</v>
+      </c>
+      <c r="F82">
+        <v>-0.0687659392073439</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08087397381176527</v>
+        <v>-0.06234710813468606</v>
       </c>
       <c r="C83">
-        <v>-0.03115841716481828</v>
+        <v>-0.003025142530181183</v>
       </c>
       <c r="D83">
-        <v>-0.04445562579049952</v>
+        <v>-0.05092754899370028</v>
       </c>
       <c r="E83">
-        <v>0.04144604257082562</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.005729462267973078</v>
+      </c>
+      <c r="F83">
+        <v>0.0432261618064546</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07224562472447303</v>
+        <v>-0.05887423515324511</v>
       </c>
       <c r="C84">
-        <v>-0.006388952987279448</v>
+        <v>-0.01058320173456718</v>
       </c>
       <c r="D84">
-        <v>0.01188902914389457</v>
+        <v>-0.0651291761967467</v>
       </c>
       <c r="E84">
-        <v>0.01520921121362936</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.004050498827662318</v>
+      </c>
+      <c r="F84">
+        <v>-0.01008647103028642</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1279119073228707</v>
+        <v>-0.1387566045333535</v>
       </c>
       <c r="C85">
-        <v>0.003439308570015428</v>
+        <v>-0.0263201105232242</v>
       </c>
       <c r="D85">
-        <v>-0.03313299855282879</v>
+        <v>-0.01487412011771733</v>
       </c>
       <c r="E85">
-        <v>-0.01988021493915324</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.04148413813904339</v>
+      </c>
+      <c r="F85">
+        <v>-0.04383488702816468</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1306885563793973</v>
+        <v>-0.09401506680204376</v>
       </c>
       <c r="C86">
-        <v>0.2586612085226762</v>
+        <v>0.007303129543223961</v>
       </c>
       <c r="D86">
-        <v>-0.2136824049427863</v>
+        <v>-0.02034325513822424</v>
       </c>
       <c r="E86">
-        <v>0.8883950457598274</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.1512288189525333</v>
+      </c>
+      <c r="F86">
+        <v>0.8795375998249302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1220905551592747</v>
+        <v>-0.09579549078850128</v>
       </c>
       <c r="C87">
-        <v>-0.1056141838060578</v>
+        <v>-0.02175631696498075</v>
       </c>
       <c r="D87">
-        <v>-0.02640443189705666</v>
+        <v>-0.09163863144980994</v>
       </c>
       <c r="E87">
-        <v>0.001627991511625282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.05358111260028123</v>
+      </c>
+      <c r="F87">
+        <v>-0.08071552652803243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05009163440638502</v>
+        <v>-0.06087344918594877</v>
       </c>
       <c r="C88">
-        <v>0.009206596892455034</v>
+        <v>-0.002352594383123712</v>
       </c>
       <c r="D88">
-        <v>-0.02217599833911169</v>
+        <v>-0.05368039529251527</v>
       </c>
       <c r="E88">
-        <v>-0.03152981108166766</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02756579452479849</v>
+      </c>
+      <c r="F88">
+        <v>-0.007643803707572955</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1338354628502547</v>
+        <v>-0.1359591738352055</v>
       </c>
       <c r="C89">
-        <v>0.175259001532834</v>
+        <v>-0.009994773663916681</v>
       </c>
       <c r="D89">
-        <v>0.3300415322795014</v>
+        <v>0.2534510332198949</v>
       </c>
       <c r="E89">
-        <v>0.003830498031680834</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.09194915474130709</v>
+      </c>
+      <c r="F89">
+        <v>-0.01627951154555147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.09910131680605332</v>
+        <v>-0.1479713102806038</v>
       </c>
       <c r="C90">
-        <v>0.1385915002396119</v>
+        <v>-0.02765795349223642</v>
       </c>
       <c r="D90">
-        <v>0.26043482036949</v>
+        <v>0.2658710986044943</v>
       </c>
       <c r="E90">
-        <v>0.004291096446986311</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.1100703918067222</v>
+      </c>
+      <c r="F90">
+        <v>-0.02028951249098924</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08643069318927989</v>
+        <v>-0.1193998253222353</v>
       </c>
       <c r="C91">
-        <v>0.003042154690427549</v>
+        <v>-0.01696017394914128</v>
       </c>
       <c r="D91">
-        <v>-0.03702002436984472</v>
+        <v>0.00900410400444469</v>
       </c>
       <c r="E91">
-        <v>0.003861663058968947</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05827864337246892</v>
+      </c>
+      <c r="F91">
+        <v>0.01684658527915591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1167140030858671</v>
+        <v>-0.1500391990213748</v>
       </c>
       <c r="C92">
-        <v>0.1388066938189432</v>
+        <v>-0.01927055026214766</v>
       </c>
       <c r="D92">
-        <v>0.2947835107647352</v>
+        <v>0.2924999941887582</v>
       </c>
       <c r="E92">
-        <v>0.01282722894152044</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.1042608911183771</v>
+      </c>
+      <c r="F92">
+        <v>-0.01140161374158321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1021857769732855</v>
+        <v>-0.1521252845646111</v>
       </c>
       <c r="C93">
-        <v>0.1529313429489504</v>
+        <v>-0.02371363630787102</v>
       </c>
       <c r="D93">
-        <v>0.2929821093270463</v>
+        <v>0.2653835802986104</v>
       </c>
       <c r="E93">
-        <v>0.02613841484076985</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.07702734231948095</v>
+      </c>
+      <c r="F93">
+        <v>-0.01649735857076316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1466734281512656</v>
+        <v>-0.1326327725751305</v>
       </c>
       <c r="C94">
-        <v>-0.0001833736987477792</v>
+        <v>-0.02369112097958733</v>
       </c>
       <c r="D94">
-        <v>-0.04145051709097784</v>
+        <v>-0.0456325385381055</v>
       </c>
       <c r="E94">
-        <v>-0.07039230387399184</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06130684682292685</v>
+      </c>
+      <c r="F94">
+        <v>-0.03011850105693352</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1172852531889024</v>
+        <v>-0.1259848488854357</v>
       </c>
       <c r="C95">
-        <v>0.002259192000173932</v>
+        <v>-0.004653463981645895</v>
       </c>
       <c r="D95">
-        <v>-0.03864151371137468</v>
+        <v>-0.09056164412211822</v>
       </c>
       <c r="E95">
-        <v>-0.03232997481353311</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.04531573364817237</v>
+      </c>
+      <c r="F95">
+        <v>0.01174516182111609</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01353071602883928</v>
+        <v>-0.09896675041395522</v>
       </c>
       <c r="C96">
-        <v>-0.002412521934506186</v>
+        <v>0.9887332210406622</v>
       </c>
       <c r="D96">
-        <v>0.001565942004027541</v>
+        <v>0.03585707976191823</v>
       </c>
       <c r="E96">
-        <v>0.0008172230271881509</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.05815506553834603</v>
+      </c>
+      <c r="F96">
+        <v>-0.0457273022519817</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1721157459634307</v>
+        <v>-0.1906843368847887</v>
       </c>
       <c r="C97">
-        <v>0.03347558451265784</v>
+        <v>0.009265166181963765</v>
       </c>
       <c r="D97">
-        <v>-0.03779852223458078</v>
+        <v>0.01859659625896308</v>
       </c>
       <c r="E97">
-        <v>-0.03978024962221717</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.01269770196918567</v>
+      </c>
+      <c r="F97">
+        <v>0.1418679289911289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2495796106098373</v>
+        <v>-0.2053904608712491</v>
       </c>
       <c r="C98">
-        <v>-0.02330522846323389</v>
+        <v>-0.007123740944216934</v>
       </c>
       <c r="D98">
-        <v>0.02940475129621337</v>
+        <v>-0.009661182580568826</v>
       </c>
       <c r="E98">
-        <v>0.09767684349546575</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.09692424730576112</v>
+      </c>
+      <c r="F98">
+        <v>0.1079756958318015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04590248506023171</v>
+        <v>-0.05566710686465058</v>
       </c>
       <c r="C99">
-        <v>0.0186027597058182</v>
+        <v>0.004257587006031665</v>
       </c>
       <c r="D99">
-        <v>-0.002395467144223059</v>
+        <v>-0.03755309315589549</v>
       </c>
       <c r="E99">
-        <v>-0.04984294799268622</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.02516780097834922</v>
+      </c>
+      <c r="F99">
+        <v>-0.00230840500791471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.122075059769265</v>
+        <v>-0.1228531174394841</v>
       </c>
       <c r="C100">
-        <v>-0.8296744449034419</v>
+        <v>0.05248061897998393</v>
       </c>
       <c r="D100">
-        <v>0.3910511067028674</v>
+        <v>-0.3496577728071526</v>
       </c>
       <c r="E100">
-        <v>0.2795173298073457</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.8930665337575517</v>
+      </c>
+      <c r="F100">
+        <v>0.07705752945008881</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02937771220005483</v>
+        <v>-0.02703384737039577</v>
       </c>
       <c r="C101">
-        <v>-0.008389698952371188</v>
+        <v>-0.00837196759878572</v>
       </c>
       <c r="D101">
-        <v>0.00274125125269668</v>
+        <v>-0.03165029515416788</v>
       </c>
       <c r="E101">
-        <v>0.0001833308399029465</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01114302933268075</v>
+      </c>
+      <c r="F101">
+        <v>0.01553333952586036</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
